--- a/descriptive-final-project/final-project-workbook.xlsx
+++ b/descriptive-final-project/final-project-workbook.xlsx
@@ -9,12 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Card value" sheetId="1" r:id="rId1"/>
     <sheet name="Histogram" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Histogram2" sheetId="6" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">Histogram2!$A$1</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -28,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Bin</t>
   </si>
@@ -38,12 +50,54 @@
   <si>
     <t>Frequency</t>
   </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Card 1</t>
+  </si>
+  <si>
+    <t>Card 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Card 3 </t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Deviation</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Sq deviation</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>bin size</t>
+  </si>
+  <si>
+    <t>Distribution is very different from the first distribution because its very random</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probability of at least 20 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -59,13 +113,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -97,10 +173,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -109,8 +189,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -272,7 +360,7 @@
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12.0</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.0</c:v>
@@ -443,7 +531,487 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Histogram2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Histogram2!$A$2:$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Histogram2!$B$2:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1286840784"/>
+        <c:axId val="1286842560"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="1286840784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1286842560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1286842560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1286840784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1004,6 +1572,527 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="276">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1022,6 +2111,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1302,10 +2426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1577,6 +2701,26 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>10</v>
       </c>
     </row>
@@ -1591,7 +2735,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1621,7 +2765,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1741,7 +2885,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2">
         <v>9</v>
@@ -1771,4 +2915,1377 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>SUM(A2,B2,C2)</f>
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <f>AVERAGE(D1:D31)</f>
+        <v>19.8</v>
+      </c>
+      <c r="G2" s="6">
+        <v>21</v>
+      </c>
+      <c r="H2">
+        <f>(D2-$F$2)</f>
+        <v>-10.8</v>
+      </c>
+      <c r="I2">
+        <f>H2^2</f>
+        <v>116.64000000000001</v>
+      </c>
+      <c r="J2">
+        <f>AVERAGE(I2:I31)</f>
+        <v>32.626666666666672</v>
+      </c>
+      <c r="K2" s="6">
+        <f>SQRT(J2)</f>
+        <v>5.7119757235711948</v>
+      </c>
+      <c r="L2" s="6">
+        <f>D31-D2</f>
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <f>20/30</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <f>SUM(A3,B3,C3)</f>
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H31" si="0">(D3-$F$2)</f>
+        <v>-10.8</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I31" si="1">H3^2</f>
+        <v>116.64000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f>SUM(A4,B4,C4)</f>
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <f>E3+1</f>
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>96.04000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <f>SUM(A5,B5,C5)</f>
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <f>E4+1</f>
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>77.440000000000012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <f>SUM(A6,B6,C6)</f>
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E31" si="2">E5+1</f>
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>-7.8000000000000007</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>60.840000000000011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f>SUM(A7,B7,C7)</f>
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>-6.8000000000000007</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>46.240000000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <f>SUM(A8,B8,C8)</f>
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>-6.8000000000000007</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>46.240000000000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <f>SUM(A9,B9,C9)</f>
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>-6.8000000000000007</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>46.240000000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <f>SUM(A10,B10,C10)</f>
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>-1.8000000000000007</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>3.2400000000000024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <f>SUM(A11,B11,C11)</f>
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>-1.8000000000000007</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>3.2400000000000024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <f>SUM(A12,B12,C12)</f>
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>3.9999999999999716E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <f>SUM(A13,B13,C13)</f>
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>3.9999999999999716E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <f>SUM(A14,B14,C14)</f>
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>3.9999999999999716E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <f>SUM(A15,B15,C15)</f>
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>1.1999999999999993</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>1.4399999999999984</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <f>SUM(A16,B16,C16)</f>
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>1.1999999999999993</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>1.4399999999999984</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <f>SUM(A17,B17,C17)</f>
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>2.1999999999999993</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>4.8399999999999972</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <f>SUM(A18,B18,C18)</f>
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>3.1999999999999993</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>10.239999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <f>SUM(A19,B19,C19)</f>
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>3.1999999999999993</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>10.239999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <f>SUM(A20,B20,C20)</f>
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>3.1999999999999993</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>10.239999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <f>SUM(A21,B21,C21)</f>
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>3.1999999999999993</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>10.239999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <f>SUM(A22,B22,C22)</f>
+        <v>24</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>17.639999999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <f>SUM(A23,B23,C23)</f>
+        <v>24</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>17.639999999999993</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <f>SUM(A24,B24,C24)</f>
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>17.639999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <f>SUM(A25,B25,C25)</f>
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>17.639999999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <f>SUM(A26,B26,C26)</f>
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>4.1999999999999993</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>17.639999999999993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <f>SUM(A27,B27,C27)</f>
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>27.039999999999992</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <f>SUM(A28,B28,C28)</f>
+        <v>25</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>27.039999999999992</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <f>SUM(A29,B29,C29)</f>
+        <v>26</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>38.439999999999991</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <f>SUM(A30,B30,C30)</f>
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>51.839999999999989</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <f>SUM(A31,B31,C31)</f>
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>84.639999999999986</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F31">
+    <sortCondition ref="D2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>15</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>16</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <v>17</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
+        <v>19</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>28</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2">
+        <v>30</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="C2:D32">
+    <sortCondition descending="1" ref="D2"/>
+  </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="F20:J20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/descriptive-final-project/final-project-workbook.xlsx
+++ b/descriptive-final-project/final-project-workbook.xlsx
@@ -2922,7 +2922,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
